--- a/programas/empleados.xlsx
+++ b/programas/empleados.xlsx
@@ -20,18 +20,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t xml:space="preserve">Damián Ochoa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubén Narciso</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Juan Ponciano</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hugo García </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+  <si>
+    <t xml:space="preserve">Ruben Narciso</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Damian Ochoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Adolfo Ponciano</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camlin del Rosario Fuentes Mijangos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juan Diego Chang </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodrigo Sacahui</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frank Fritzschee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freddy Rodriguez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Eugenia Cabrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Giovanni Ramírez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hugo Allan García Monterrosa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">José Carlos Bonilla Aldana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">David Marin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Héctor Eduardo Perez Figueroa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luis Guillermo García</t>
+  </si>
+  <si>
+    <t xml:space="preserve">William Gutiérrez Herrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Osmar Hernandez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rodolfo Samayoa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edgar Cifuentes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walter Giovanni Álvarez Marroquin</t>
   </si>
 </sst>
 </file>
@@ -40,13 +88,14 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="HH:MM:SS"/>
+    <numFmt numFmtId="165" formatCode="HH:MM"/>
   </numFmts>
-  <fonts count="12">
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
+  <fonts count="16">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -64,54 +113,96 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="24"/>
       <color rgb="FF000000"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF333333"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
       <sz val="10"/>
       <color rgb="FF808080"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF006600"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF996600"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFCC0000"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
-      <name val="FreeSans"/>
-      <family val="2"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,8 +251,14 @@
         <bgColor rgb="FFFFCCCC"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -184,8 +281,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="double"/>
+      <right style="double"/>
+      <top style="double"/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="36">
+  <cellStyleXfs count="37">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -209,56 +313,108 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="8" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="165" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="23">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
     <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
     <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
     <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
     <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
-    <cellStyle name="Heading" xfId="20" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 1" xfId="21" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Heading 2" xfId="22" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Text" xfId="23" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Note" xfId="24" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Footnote" xfId="25" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Status" xfId="26" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Good" xfId="27" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Neutral" xfId="28" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Bad" xfId="29" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Warning" xfId="30" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Error" xfId="31" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent" xfId="32" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 1" xfId="33" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 2" xfId="34" builtinId="53" customBuiltin="true"/>
-    <cellStyle name="Accent 3" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading" xfId="21" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 1" xfId="22" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Heading 2" xfId="23" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Text" xfId="24" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Note" xfId="25" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Footnote" xfId="26" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Status" xfId="27" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Good" xfId="28" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="29" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Bad" xfId="30" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Warning" xfId="31" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Error" xfId="32" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent" xfId="33" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 1" xfId="34" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 2" xfId="35" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Accent 3" xfId="36" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="*unknown*" xfId="20" builtinId="8" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -328,10 +484,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -340,35 +496,245 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="n">
+      <c r="B1" s="2" t="n">
         <v>0.291666666666667</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="C1" s="2" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="n">
+      <c r="B2" s="2" t="n">
         <v>0.291666666666667</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="C2" s="2" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="n">
+      <c r="B3" s="2" t="n">
         <v>0.291666666666667</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="C3" s="2" t="n">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="n">
+      <c r="B4" s="2" t="n">
         <v>0.333333333333333</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>0.333333333333333</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>0.666666666666667</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>0.541666666666667</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C10" s="4" t="n">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>0.583333333333333</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>0.416666666666667</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>0.708333333333333</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>0.583333333333333</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>0.791666666666667</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="46.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>0.833333333333333</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="2" t="n">
+        <v>0.708333333333333</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>0.875</v>
       </c>
     </row>
   </sheetData>
